--- a/CS+3550+-+Aggregation+Data+Set.xlsx
+++ b/CS+3550+-+Aggregation+Data+Set.xlsx
@@ -1,36 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\08524\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03cjm\Documents\GitHub\3550GroupAssignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5B5984-DAA9-45BF-A0B7-91C84922B6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10590" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10596" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate Data Set" sheetId="1" r:id="rId1"/>
     <sheet name="Windowed Functions Data Set" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Manufacturer" sheetId="3" r:id="rId3"/>
+    <sheet name="Console" sheetId="4" r:id="rId4"/>
+    <sheet name="Games" sheetId="6" r:id="rId5"/>
+    <sheet name="ESRB" sheetId="7" r:id="rId6"/>
+    <sheet name="Genre" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Aggregate Data Set'!$A$1:$H$561</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>InvoiceID</t>
   </si>
@@ -295,11 +304,128 @@
   <si>
     <t>WonderSwan</t>
   </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>GameName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESRB </t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Missile Command</t>
+  </si>
+  <si>
+    <t>ESRB</t>
+  </si>
+  <si>
+    <t>RattingID</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E 10+</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>GenreId</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot</t>
+  </si>
+  <si>
+    <t>GenreName</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Role Play</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Star Wars Battlefront</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Final Fantasy XV</t>
+  </si>
+  <si>
+    <t>Halo Reach</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>Monster Hunter World</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Guitar Hero: On Tour</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Mario Kart Wii</t>
+  </si>
+  <si>
+    <t>Super Smash Bros. Brawl</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyrim </t>
+  </si>
+  <si>
+    <t>Sonic The Hedgehog</t>
+  </si>
+  <si>
+    <t>Zelda Link's Awakening</t>
+  </si>
+  <si>
+    <t>Donkey Kong 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last of Us </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,23 +781,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H561"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6930</v>
       </c>
@@ -723,7 +849,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8653</v>
       </c>
@@ -749,7 +875,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6930</v>
       </c>
@@ -775,7 +901,7 @@
         <v>2380.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7224</v>
       </c>
@@ -801,7 +927,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7224</v>
       </c>
@@ -827,7 +953,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4841</v>
       </c>
@@ -853,7 +979,7 @@
         <v>402.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4841</v>
       </c>
@@ -879,7 +1005,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4841</v>
       </c>
@@ -905,7 +1031,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6930</v>
       </c>
@@ -931,7 +1057,7 @@
         <v>102.12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4841</v>
       </c>
@@ -957,7 +1083,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6930</v>
       </c>
@@ -983,7 +1109,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7224</v>
       </c>
@@ -1009,7 +1135,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6930</v>
       </c>
@@ -1035,7 +1161,7 @@
         <v>551.42999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8653</v>
       </c>
@@ -1061,7 +1187,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6611</v>
       </c>
@@ -1087,7 +1213,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8075</v>
       </c>
@@ -1113,7 +1239,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6611</v>
       </c>
@@ -1139,7 +1265,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1417</v>
       </c>
@@ -1165,7 +1291,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6611</v>
       </c>
@@ -1191,7 +1317,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13874</v>
       </c>
@@ -1217,7 +1343,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6611</v>
       </c>
@@ -1243,7 +1369,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8075</v>
       </c>
@@ -1269,7 +1395,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8075</v>
       </c>
@@ -1295,7 +1421,7 @@
         <v>312.8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4006</v>
       </c>
@@ -1321,7 +1447,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6611</v>
       </c>
@@ -1347,7 +1473,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8075</v>
       </c>
@@ -1373,7 +1499,7 @@
         <v>258.75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13874</v>
       </c>
@@ -1399,7 +1525,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4006</v>
       </c>
@@ -1425,7 +1551,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13874</v>
       </c>
@@ -1451,7 +1577,7 @@
         <v>5692.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4006</v>
       </c>
@@ -1477,7 +1603,7 @@
         <v>335.34</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13874</v>
       </c>
@@ -1503,7 +1629,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1417</v>
       </c>
@@ -1529,7 +1655,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8075</v>
       </c>
@@ -1555,7 +1681,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11883</v>
       </c>
@@ -1581,7 +1707,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11883</v>
       </c>
@@ -1607,7 +1733,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11883</v>
       </c>
@@ -1633,7 +1759,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11231</v>
       </c>
@@ -1659,7 +1785,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11231</v>
       </c>
@@ -1685,7 +1811,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11231</v>
       </c>
@@ -1711,7 +1837,7 @@
         <v>3622.5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3105</v>
       </c>
@@ -1737,7 +1863,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3105</v>
       </c>
@@ -1763,7 +1889,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4731</v>
       </c>
@@ -1789,7 +1915,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3105</v>
       </c>
@@ -1815,7 +1941,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4731</v>
       </c>
@@ -1841,7 +1967,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4731</v>
       </c>
@@ -1867,7 +1993,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3105</v>
       </c>
@@ -1893,7 +2019,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16000</v>
       </c>
@@ -1919,7 +2045,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16000</v>
       </c>
@@ -1945,7 +2071,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5939</v>
       </c>
@@ -1971,7 +2097,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5939</v>
       </c>
@@ -1997,7 +2123,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>16000</v>
       </c>
@@ -2023,7 +2149,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13921</v>
       </c>
@@ -2049,7 +2175,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5939</v>
       </c>
@@ -2075,7 +2201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>11273</v>
       </c>
@@ -2101,7 +2227,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16000</v>
       </c>
@@ -2127,7 +2253,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13921</v>
       </c>
@@ -2153,7 +2279,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11273</v>
       </c>
@@ -2179,7 +2305,7 @@
         <v>1131.5999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14464</v>
       </c>
@@ -2205,7 +2331,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8364</v>
       </c>
@@ -2231,7 +2357,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8364</v>
       </c>
@@ -2257,7 +2383,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8364</v>
       </c>
@@ -2283,7 +2409,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8364</v>
       </c>
@@ -2309,7 +2435,7 @@
         <v>149.04</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>7947</v>
       </c>
@@ -2335,7 +2461,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7947</v>
       </c>
@@ -2361,7 +2487,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>16721</v>
       </c>
@@ -2387,7 +2513,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>16721</v>
       </c>
@@ -2413,7 +2539,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>16721</v>
       </c>
@@ -2439,7 +2565,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7947</v>
       </c>
@@ -2465,7 +2591,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>16721</v>
       </c>
@@ -2491,7 +2617,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16721</v>
       </c>
@@ -2517,7 +2643,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6636</v>
       </c>
@@ -2543,7 +2669,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1919</v>
       </c>
@@ -2569,7 +2695,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6636</v>
       </c>
@@ -2595,7 +2721,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6636</v>
       </c>
@@ -2621,7 +2747,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>12994</v>
       </c>
@@ -2647,7 +2773,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -2673,7 +2799,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12994</v>
       </c>
@@ -2699,7 +2825,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1919</v>
       </c>
@@ -2725,7 +2851,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6636</v>
       </c>
@@ -2751,7 +2877,7 @@
         <v>282.89999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12994</v>
       </c>
@@ -2777,7 +2903,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1919</v>
       </c>
@@ -2803,7 +2929,7 @@
         <v>11385</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12994</v>
       </c>
@@ -2829,7 +2955,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6636</v>
       </c>
@@ -2855,7 +2981,7 @@
         <v>919.08</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5027</v>
       </c>
@@ -2881,7 +3007,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2907,7 +3033,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2933,7 +3059,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5027</v>
       </c>
@@ -2959,7 +3085,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5027</v>
       </c>
@@ -2985,7 +3111,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3011,7 +3137,7 @@
         <v>298.08</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5930</v>
       </c>
@@ -3037,7 +3163,7 @@
         <v>402.5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5930</v>
       </c>
@@ -3063,7 +3189,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>5930</v>
       </c>
@@ -3089,7 +3215,7 @@
         <v>905.28</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7</v>
       </c>
@@ -3115,7 +3241,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>7</v>
       </c>
@@ -3141,7 +3267,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>7</v>
       </c>
@@ -3167,7 +3293,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>7</v>
       </c>
@@ -3193,7 +3319,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>49</v>
       </c>
@@ -3219,7 +3345,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>377</v>
       </c>
@@ -3245,7 +3371,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>377</v>
       </c>
@@ -3271,7 +3397,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>488</v>
       </c>
@@ -3297,7 +3423,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>488</v>
       </c>
@@ -3323,7 +3449,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>488</v>
       </c>
@@ -3349,7 +3475,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>488</v>
       </c>
@@ -3375,7 +3501,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>8045</v>
       </c>
@@ -3401,7 +3527,7 @@
         <v>1897.5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>8045</v>
       </c>
@@ -3427,7 +3553,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>8045</v>
       </c>
@@ -3453,7 +3579,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>8045</v>
       </c>
@@ -3479,7 +3605,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>14819</v>
       </c>
@@ -3505,7 +3631,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14819</v>
       </c>
@@ -3531,7 +3657,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14819</v>
       </c>
@@ -3557,7 +3683,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14869</v>
       </c>
@@ -3583,7 +3709,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14869</v>
       </c>
@@ -3609,7 +3735,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14869</v>
       </c>
@@ -3635,7 +3761,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>14869</v>
       </c>
@@ -3661,7 +3787,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14869</v>
       </c>
@@ -3687,7 +3813,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14022</v>
       </c>
@@ -3713,7 +3839,7 @@
         <v>377.2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>14022</v>
       </c>
@@ -3739,7 +3865,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14022</v>
       </c>
@@ -3765,7 +3891,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14022</v>
       </c>
@@ -3791,7 +3917,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14179</v>
       </c>
@@ -3817,7 +3943,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14179</v>
       </c>
@@ -3843,7 +3969,7 @@
         <v>73.31</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14179</v>
       </c>
@@ -3869,7 +3995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14179</v>
       </c>
@@ -3895,7 +4021,7 @@
         <v>452.64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1729</v>
       </c>
@@ -3921,7 +4047,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1729</v>
       </c>
@@ -3947,7 +4073,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>8574</v>
       </c>
@@ -3973,7 +4099,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>8574</v>
       </c>
@@ -3999,7 +4125,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>8574</v>
       </c>
@@ -4025,7 +4151,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>8574</v>
       </c>
@@ -4051,7 +4177,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>8574</v>
       </c>
@@ -4077,7 +4203,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>15196</v>
       </c>
@@ -4103,7 +4229,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>15196</v>
       </c>
@@ -4129,7 +4255,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>15196</v>
       </c>
@@ -4155,7 +4281,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>4413</v>
       </c>
@@ -4181,7 +4307,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>4413</v>
       </c>
@@ -4207,7 +4333,7 @@
         <v>469.2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4413</v>
       </c>
@@ -4233,7 +4359,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4413</v>
       </c>
@@ -4259,7 +4385,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>11187</v>
       </c>
@@ -4285,7 +4411,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>11187</v>
       </c>
@@ -4311,7 +4437,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>11341</v>
       </c>
@@ -4337,7 +4463,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>11341</v>
       </c>
@@ -4363,7 +4489,7 @@
         <v>191.48</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>11341</v>
       </c>
@@ -4389,7 +4515,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>11341</v>
       </c>
@@ -4415,7 +4541,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>11341</v>
       </c>
@@ -4441,7 +4567,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>18176</v>
       </c>
@@ -4467,7 +4593,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>18176</v>
       </c>
@@ -4493,7 +4619,7 @@
         <v>351.9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>18176</v>
       </c>
@@ -4519,7 +4645,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>18176</v>
       </c>
@@ -4545,7 +4671,7 @@
         <v>520.26</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>18263</v>
       </c>
@@ -4571,7 +4697,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2505</v>
       </c>
@@ -4597,7 +4723,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2505</v>
       </c>
@@ -4623,7 +4749,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2505</v>
       </c>
@@ -4649,7 +4775,7 @@
         <v>2656.5</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>9315</v>
       </c>
@@ -4675,7 +4801,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>9315</v>
       </c>
@@ -4701,7 +4827,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>9315</v>
       </c>
@@ -4727,7 +4853,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9315</v>
       </c>
@@ -4753,7 +4879,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>9315</v>
       </c>
@@ -4779,7 +4905,7 @@
         <v>195.5</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>15743</v>
       </c>
@@ -4805,7 +4931,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>15743</v>
       </c>
@@ -4831,7 +4957,7 @@
         <v>113.16</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2732</v>
       </c>
@@ -4857,7 +4983,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2732</v>
       </c>
@@ -4883,7 +5009,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2868</v>
       </c>
@@ -4909,7 +5035,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2868</v>
       </c>
@@ -4935,7 +5061,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2868</v>
       </c>
@@ -4961,7 +5087,7 @@
         <v>74.52</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2868</v>
       </c>
@@ -4987,7 +5113,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>10762</v>
       </c>
@@ -5013,7 +5139,7 @@
         <v>452.64</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>10762</v>
       </c>
@@ -5039,7 +5165,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>10762</v>
       </c>
@@ -5065,7 +5191,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>10762</v>
       </c>
@@ -5091,7 +5217,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>10762</v>
       </c>
@@ -5117,7 +5243,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4934</v>
       </c>
@@ -5143,7 +5269,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4934</v>
       </c>
@@ -5169,7 +5295,7 @@
         <v>306.36</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4934</v>
       </c>
@@ -5195,7 +5321,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4934</v>
       </c>
@@ -5221,7 +5347,7 @@
         <v>9016</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4934</v>
       </c>
@@ -5247,7 +5373,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>5066</v>
       </c>
@@ -5273,7 +5399,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>5066</v>
       </c>
@@ -5299,7 +5425,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>5066</v>
       </c>
@@ -5325,7 +5451,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5351</v>
       </c>
@@ -5351,7 +5477,7 @@
         <v>346.84</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>5351</v>
       </c>
@@ -5377,7 +5503,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>5351</v>
       </c>
@@ -5403,7 +5529,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>12578</v>
       </c>
@@ -5429,7 +5555,7 @@
         <v>11178</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>12578</v>
       </c>
@@ -5455,7 +5581,7 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>16210</v>
       </c>
@@ -5481,7 +5607,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>16210</v>
       </c>
@@ -5507,7 +5633,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>16210</v>
       </c>
@@ -5533,7 +5659,7 @@
         <v>520.26</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>16210</v>
       </c>
@@ -5559,7 +5685,7 @@
         <v>204.24</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>16210</v>
       </c>
@@ -5585,7 +5711,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>16665</v>
       </c>
@@ -5611,7 +5737,7 @@
         <v>2294.25</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>16665</v>
       </c>
@@ -5637,7 +5763,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>16665</v>
       </c>
@@ -5663,7 +5789,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>5761</v>
       </c>
@@ -5689,7 +5815,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>5761</v>
       </c>
@@ -5715,7 +5841,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2</v>
       </c>
@@ -5741,7 +5867,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2</v>
       </c>
@@ -5767,7 +5893,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>46</v>
       </c>
@@ -5793,7 +5919,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>46</v>
       </c>
@@ -5819,7 +5945,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>491</v>
       </c>
@@ -5845,7 +5971,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>491</v>
       </c>
@@ -5871,7 +5997,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>491</v>
       </c>
@@ -5897,7 +6023,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>491</v>
       </c>
@@ -5923,7 +6049,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>491</v>
       </c>
@@ -5949,7 +6075,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>492</v>
       </c>
@@ -5975,7 +6101,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>492</v>
       </c>
@@ -6001,7 +6127,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>898</v>
       </c>
@@ -6027,7 +6153,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>898</v>
       </c>
@@ -6053,7 +6179,7 @@
         <v>149.04</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>898</v>
       </c>
@@ -6079,7 +6205,7 @@
         <v>100.63</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>898</v>
       </c>
@@ -6105,7 +6231,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>7435</v>
       </c>
@@ -6131,7 +6257,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>7435</v>
       </c>
@@ -6157,7 +6283,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>7898</v>
       </c>
@@ -6183,7 +6309,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>7898</v>
       </c>
@@ -6209,7 +6335,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>7898</v>
       </c>
@@ -6235,7 +6361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>7898</v>
       </c>
@@ -6261,7 +6387,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>7898</v>
       </c>
@@ -6287,7 +6413,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>14982</v>
       </c>
@@ -6313,7 +6439,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>13675</v>
       </c>
@@ -6339,7 +6465,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>13675</v>
       </c>
@@ -6365,7 +6491,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>13675</v>
       </c>
@@ -6391,7 +6517,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>13675</v>
       </c>
@@ -6417,7 +6543,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1422</v>
       </c>
@@ -6443,7 +6569,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1422</v>
       </c>
@@ -6469,7 +6595,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1422</v>
       </c>
@@ -6495,7 +6621,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1422</v>
       </c>
@@ -6521,7 +6647,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1791</v>
       </c>
@@ -6547,7 +6673,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1791</v>
       </c>
@@ -6573,7 +6699,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1791</v>
       </c>
@@ -6599,7 +6725,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1791</v>
       </c>
@@ -6625,7 +6751,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>8384</v>
       </c>
@@ -6651,7 +6777,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>8384</v>
       </c>
@@ -6677,7 +6803,7 @@
         <v>60.38</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8384</v>
       </c>
@@ -6703,7 +6829,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8932</v>
       </c>
@@ -6729,7 +6855,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8932</v>
       </c>
@@ -6755,7 +6881,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8932</v>
       </c>
@@ -6781,7 +6907,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>14982</v>
       </c>
@@ -6807,7 +6933,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3930</v>
       </c>
@@ -6833,7 +6959,7 @@
         <v>226.32</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3930</v>
       </c>
@@ -6859,7 +6985,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>11045</v>
       </c>
@@ -6885,7 +7011,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>11189</v>
       </c>
@@ -6911,7 +7037,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>11189</v>
       </c>
@@ -6937,7 +7063,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>11189</v>
       </c>
@@ -6963,7 +7089,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>11418</v>
       </c>
@@ -6989,7 +7115,7 @@
         <v>1552.5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>11418</v>
       </c>
@@ -7015,7 +7141,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>11418</v>
       </c>
@@ -7041,7 +7167,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>11418</v>
       </c>
@@ -7067,7 +7193,7 @@
         <v>459.54</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>11418</v>
       </c>
@@ -7093,7 +7219,7 @@
         <v>234.6</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>18016</v>
       </c>
@@ -7119,7 +7245,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>18016</v>
       </c>
@@ -7145,7 +7271,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>18016</v>
       </c>
@@ -7171,7 +7297,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>18016</v>
       </c>
@@ -7197,7 +7323,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>18319</v>
       </c>
@@ -7223,7 +7349,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>18319</v>
       </c>
@@ -7249,7 +7375,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>18531</v>
       </c>
@@ -7275,7 +7401,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>18531</v>
       </c>
@@ -7301,7 +7427,7 @@
         <v>1190.25</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>18531</v>
       </c>
@@ -7327,7 +7453,7 @@
         <v>3829.5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>18531</v>
       </c>
@@ -7353,7 +7479,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>18531</v>
       </c>
@@ -7379,7 +7505,7 @@
         <v>6831</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>18618</v>
       </c>
@@ -7405,7 +7531,7 @@
         <v>510.6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1791</v>
       </c>
@@ -7431,7 +7557,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2065</v>
       </c>
@@ -7457,7 +7583,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2065</v>
       </c>
@@ -7483,7 +7609,7 @@
         <v>1322.5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>15407</v>
       </c>
@@ -7509,7 +7635,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>15407</v>
       </c>
@@ -7535,7 +7661,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>15407</v>
       </c>
@@ -7561,7 +7687,7 @@
         <v>704.38</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>16065</v>
       </c>
@@ -7587,7 +7713,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>16065</v>
       </c>
@@ -7613,7 +7739,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>16065</v>
       </c>
@@ -7639,7 +7765,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>16065</v>
       </c>
@@ -7665,7 +7791,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2694</v>
       </c>
@@ -7691,7 +7817,7 @@
         <v>143.75</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2694</v>
       </c>
@@ -7717,7 +7843,7 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2864</v>
       </c>
@@ -7743,7 +7869,7 @@
         <v>258.75</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2864</v>
       </c>
@@ -7769,7 +7895,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2864</v>
       </c>
@@ -7795,7 +7921,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2864</v>
       </c>
@@ -7821,7 +7947,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2864</v>
       </c>
@@ -7847,7 +7973,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3351</v>
       </c>
@@ -7873,7 +7999,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3351</v>
       </c>
@@ -7899,7 +8025,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>10276</v>
       </c>
@@ -7925,7 +8051,7 @@
         <v>905.63</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>10276</v>
       </c>
@@ -7951,7 +8077,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>10276</v>
       </c>
@@ -7977,7 +8103,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>17112</v>
       </c>
@@ -8003,7 +8129,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>17112</v>
       </c>
@@ -8029,7 +8155,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>17112</v>
       </c>
@@ -8055,7 +8181,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>17112</v>
       </c>
@@ -8081,7 +8207,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>17112</v>
       </c>
@@ -8107,7 +8233,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>17386</v>
       </c>
@@ -8133,7 +8259,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>17386</v>
       </c>
@@ -8159,7 +8285,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>17386</v>
       </c>
@@ -8185,7 +8311,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>17386</v>
       </c>
@@ -8211,7 +8337,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>17838</v>
       </c>
@@ -8237,7 +8363,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>17838</v>
       </c>
@@ -8263,7 +8389,7 @@
         <v>792.12</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>17838</v>
       </c>
@@ -8289,7 +8415,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>4714</v>
       </c>
@@ -8315,7 +8441,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>4714</v>
       </c>
@@ -8341,7 +8467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>4714</v>
       </c>
@@ -8367,7 +8493,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>4714</v>
       </c>
@@ -8393,7 +8519,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>4714</v>
       </c>
@@ -8419,7 +8545,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>4940</v>
       </c>
@@ -8445,7 +8571,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>4940</v>
       </c>
@@ -8471,7 +8597,7 @@
         <v>260.82</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>4940</v>
       </c>
@@ -8497,7 +8623,7 @@
         <v>236.33</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>4941</v>
       </c>
@@ -8523,7 +8649,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>4941</v>
       </c>
@@ -8549,7 +8675,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>4941</v>
       </c>
@@ -8575,7 +8701,7 @@
         <v>1638.75</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>4941</v>
       </c>
@@ -8601,7 +8727,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>16317</v>
       </c>
@@ -8627,7 +8753,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>16317</v>
       </c>
@@ -8653,7 +8779,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>16317</v>
       </c>
@@ -8679,7 +8805,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>16317</v>
       </c>
@@ -8705,7 +8831,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>16317</v>
       </c>
@@ -8731,7 +8857,7 @@
         <v>282.89999999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>5485</v>
       </c>
@@ -8757,7 +8883,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>5485</v>
       </c>
@@ -8783,7 +8909,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>5485</v>
       </c>
@@ -8809,7 +8935,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>5723</v>
       </c>
@@ -8835,7 +8961,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>5723</v>
       </c>
@@ -8861,7 +8987,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>5723</v>
       </c>
@@ -8887,7 +9013,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>13347</v>
       </c>
@@ -8913,7 +9039,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>13347</v>
       </c>
@@ -8939,7 +9065,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>13347</v>
       </c>
@@ -8965,7 +9091,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>13347</v>
       </c>
@@ -8991,7 +9117,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>13347</v>
       </c>
@@ -9017,7 +9143,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>5</v>
       </c>
@@ -9043,7 +9169,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9069,7 +9195,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>5</v>
       </c>
@@ -9095,7 +9221,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>48</v>
       </c>
@@ -9121,7 +9247,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>48</v>
       </c>
@@ -9147,7 +9273,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>7274</v>
       </c>
@@ -9173,7 +9299,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>7274</v>
       </c>
@@ -9199,7 +9325,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>7274</v>
       </c>
@@ -9225,7 +9351,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>7274</v>
       </c>
@@ -9251,7 +9377,7 @@
         <v>293.25</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>7449</v>
       </c>
@@ -9277,7 +9403,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>7449</v>
       </c>
@@ -9303,7 +9429,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>14403</v>
       </c>
@@ -9329,7 +9455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>14403</v>
       </c>
@@ -9355,7 +9481,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>6804</v>
       </c>
@@ -9381,7 +9507,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>6804</v>
       </c>
@@ -9407,7 +9533,7 @@
         <v>10867.5</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>13610</v>
       </c>
@@ -9433,7 +9559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>13610</v>
       </c>
@@ -9459,7 +9585,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>13610</v>
       </c>
@@ -9485,7 +9611,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>13865</v>
       </c>
@@ -9511,7 +9637,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>13865</v>
       </c>
@@ -9537,7 +9663,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>13865</v>
       </c>
@@ -9563,7 +9689,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1449</v>
       </c>
@@ -9589,7 +9715,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1449</v>
       </c>
@@ -9615,7 +9741,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1449</v>
       </c>
@@ -9641,7 +9767,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1449</v>
       </c>
@@ -9667,7 +9793,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1449</v>
       </c>
@@ -9693,7 +9819,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>8085</v>
       </c>
@@ -9719,7 +9845,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>8741</v>
       </c>
@@ -9745,7 +9871,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>8741</v>
       </c>
@@ -9771,7 +9897,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>8741</v>
       </c>
@@ -9797,7 +9923,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>8741</v>
       </c>
@@ -9823,7 +9949,7 @@
         <v>12420</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>15018</v>
       </c>
@@ -9849,7 +9975,7 @@
         <v>1851.5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>15018</v>
       </c>
@@ -9875,7 +10001,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>15018</v>
       </c>
@@ -9901,7 +10027,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>3848</v>
       </c>
@@ -9927,7 +10053,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>3848</v>
       </c>
@@ -9953,7 +10079,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>3848</v>
       </c>
@@ -9979,7 +10105,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>3848</v>
       </c>
@@ -10005,7 +10131,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>3848</v>
       </c>
@@ -10031,7 +10157,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>3906</v>
       </c>
@@ -10057,7 +10183,7 @@
         <v>204.24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>3906</v>
       </c>
@@ -10083,7 +10209,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>4364</v>
       </c>
@@ -10109,7 +10235,7 @@
         <v>346.15</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>4364</v>
       </c>
@@ -10135,7 +10261,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>4364</v>
       </c>
@@ -10161,7 +10287,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>4364</v>
       </c>
@@ -10187,7 +10313,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>4465</v>
       </c>
@@ -10213,7 +10339,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>4465</v>
       </c>
@@ -10239,7 +10365,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>4465</v>
       </c>
@@ -10265,7 +10391,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>11051</v>
       </c>
@@ -10291,7 +10417,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>11051</v>
       </c>
@@ -10317,7 +10443,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>11051</v>
       </c>
@@ -10343,7 +10469,7 @@
         <v>630.20000000000005</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>11051</v>
       </c>
@@ -10369,7 +10495,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>11469</v>
       </c>
@@ -10395,7 +10521,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>11469</v>
       </c>
@@ -10421,7 +10547,7 @@
         <v>3415.5</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>11469</v>
       </c>
@@ -10447,7 +10573,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>11512</v>
       </c>
@@ -10473,7 +10599,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>11512</v>
       </c>
@@ -10499,7 +10625,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>11512</v>
       </c>
@@ -10525,7 +10651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>11512</v>
       </c>
@@ -10551,7 +10677,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>11512</v>
       </c>
@@ -10577,7 +10703,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>18386</v>
       </c>
@@ -10603,7 +10729,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>18386</v>
       </c>
@@ -10629,7 +10755,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>18386</v>
       </c>
@@ -10655,7 +10781,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>18386</v>
       </c>
@@ -10681,7 +10807,7 @@
         <v>3967.5</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>18386</v>
       </c>
@@ -10707,7 +10833,7 @@
         <v>1437.5</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>18466</v>
       </c>
@@ -10733,7 +10859,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>18466</v>
       </c>
@@ -10759,7 +10885,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>9616</v>
       </c>
@@ -10785,7 +10911,7 @@
         <v>9660</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>9616</v>
       </c>
@@ -10811,7 +10937,7 @@
         <v>7969.5</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>9616</v>
       </c>
@@ -10837,7 +10963,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>9616</v>
       </c>
@@ -10863,7 +10989,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>9616</v>
       </c>
@@ -10889,7 +11015,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>9792</v>
       </c>
@@ -10915,7 +11041,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>9792</v>
       </c>
@@ -10941,7 +11067,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>9792</v>
       </c>
@@ -10967,7 +11093,7 @@
         <v>471.5</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>15418</v>
       </c>
@@ -10993,7 +11119,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>15418</v>
       </c>
@@ -11019,7 +11145,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>15418</v>
       </c>
@@ -11045,7 +11171,7 @@
         <v>2012.5</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>15418</v>
       </c>
@@ -11071,7 +11197,7 @@
         <v>630.20000000000005</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>15418</v>
       </c>
@@ -11097,7 +11223,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>15924</v>
       </c>
@@ -11123,7 +11249,7 @@
         <v>281.75</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>15924</v>
       </c>
@@ -11149,7 +11275,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>15924</v>
       </c>
@@ -11175,7 +11301,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>15924</v>
       </c>
@@ -11201,7 +11327,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>9963</v>
       </c>
@@ -11227,7 +11353,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>9963</v>
       </c>
@@ -11253,7 +11379,7 @@
         <v>271.69</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>9963</v>
       </c>
@@ -11279,7 +11405,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>9963</v>
       </c>
@@ -11305,7 +11431,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>9963</v>
       </c>
@@ -11331,7 +11457,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>9987</v>
       </c>
@@ -11357,7 +11483,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>9987</v>
       </c>
@@ -11383,7 +11509,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>10001</v>
       </c>
@@ -11409,7 +11535,7 @@
         <v>73.31</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>10001</v>
       </c>
@@ -11435,7 +11561,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>10001</v>
       </c>
@@ -11461,7 +11587,7 @@
         <v>792.12</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>10001</v>
       </c>
@@ -11487,7 +11613,7 @@
         <v>109.25</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>10025</v>
       </c>
@@ -11513,7 +11639,7 @@
         <v>612.72</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>17402</v>
       </c>
@@ -11539,7 +11665,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>17402</v>
       </c>
@@ -11565,7 +11691,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>17402</v>
       </c>
@@ -11591,7 +11717,7 @@
         <v>351.9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>17402</v>
       </c>
@@ -11617,7 +11743,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>17402</v>
       </c>
@@ -11643,7 +11769,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>17617</v>
       </c>
@@ -11669,7 +11795,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>17617</v>
       </c>
@@ -11695,7 +11821,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>17617</v>
       </c>
@@ -11721,7 +11847,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>17617</v>
       </c>
@@ -11747,7 +11873,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>17617</v>
       </c>
@@ -11773,7 +11899,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>17712</v>
       </c>
@@ -11799,7 +11925,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>17712</v>
       </c>
@@ -11825,7 +11951,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>17712</v>
       </c>
@@ -11851,7 +11977,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>17712</v>
       </c>
@@ -11877,7 +12003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>5241</v>
       </c>
@@ -11903,7 +12029,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>5241</v>
       </c>
@@ -11929,7 +12055,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>5241</v>
       </c>
@@ -11955,7 +12081,7 @@
         <v>714.84</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>11711</v>
       </c>
@@ -11981,7 +12107,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>11711</v>
       </c>
@@ -12007,7 +12133,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>11711</v>
       </c>
@@ -12033,7 +12159,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>11711</v>
       </c>
@@ -12059,7 +12185,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>11725</v>
       </c>
@@ -12085,7 +12211,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>11725</v>
       </c>
@@ -12111,7 +12237,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>11725</v>
       </c>
@@ -12137,7 +12263,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>5478</v>
       </c>
@@ -12163,7 +12289,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>5478</v>
       </c>
@@ -12189,7 +12315,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>5478</v>
       </c>
@@ -12215,7 +12341,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>5478</v>
       </c>
@@ -12241,7 +12367,7 @@
         <v>181.13</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>13390</v>
       </c>
@@ -12267,7 +12393,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>13390</v>
       </c>
@@ -12293,7 +12419,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>13390</v>
       </c>
@@ -12319,7 +12445,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>8</v>
       </c>
@@ -12345,7 +12471,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>8</v>
       </c>
@@ -12371,7 +12497,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12397,7 +12523,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>50</v>
       </c>
@@ -12423,7 +12549,7 @@
         <v>97.81</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>659</v>
       </c>
@@ -12449,7 +12575,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>659</v>
       </c>
@@ -12475,7 +12601,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>659</v>
       </c>
@@ -12501,7 +12627,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>758</v>
       </c>
@@ -12527,7 +12653,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>758</v>
       </c>
@@ -12553,7 +12679,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>7214</v>
       </c>
@@ -12579,7 +12705,7 @@
         <v>247.25</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>7214</v>
       </c>
@@ -12605,7 +12731,7 @@
         <v>12075</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>7214</v>
       </c>
@@ -12631,7 +12757,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>7214</v>
       </c>
@@ -12657,7 +12783,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>7214</v>
       </c>
@@ -12683,7 +12809,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>14471</v>
       </c>
@@ -12709,7 +12835,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>14471</v>
       </c>
@@ -12735,7 +12861,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>14471</v>
       </c>
@@ -12761,7 +12887,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>14471</v>
       </c>
@@ -12787,7 +12913,7 @@
         <v>3001.5</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>14814</v>
       </c>
@@ -12813,7 +12939,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>14814</v>
       </c>
@@ -12839,7 +12965,7 @@
         <v>8452.5</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>14814</v>
       </c>
@@ -12865,7 +12991,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>14814</v>
       </c>
@@ -12891,7 +13017,7 @@
         <v>143.75</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>14974</v>
       </c>
@@ -12917,7 +13043,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>6914</v>
       </c>
@@ -12943,7 +13069,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>6914</v>
       </c>
@@ -12969,7 +13095,7 @@
         <v>3018.75</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>6914</v>
       </c>
@@ -12995,7 +13121,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>7139</v>
       </c>
@@ -13021,7 +13147,7 @@
         <v>153.18</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>7139</v>
       </c>
@@ -13047,7 +13173,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>14021</v>
       </c>
@@ -13073,7 +13199,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>14021</v>
       </c>
@@ -13099,7 +13225,7 @@
         <v>86.71</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>14021</v>
       </c>
@@ -13125,7 +13251,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>14021</v>
       </c>
@@ -13151,7 +13277,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>8560</v>
       </c>
@@ -13177,7 +13303,7 @@
         <v>408.48</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>8560</v>
       </c>
@@ -13203,7 +13329,7 @@
         <v>3622.5</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>8560</v>
       </c>
@@ -13229,7 +13355,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>11072</v>
       </c>
@@ -13255,7 +13381,7 @@
         <v>6037.5</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>11072</v>
       </c>
@@ -13281,7 +13407,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>11072</v>
       </c>
@@ -13307,7 +13433,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>11072</v>
       </c>
@@ -13333,7 +13459,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>11374</v>
       </c>
@@ -13359,7 +13485,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>11374</v>
       </c>
@@ -13385,7 +13511,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>11466</v>
       </c>
@@ -13411,7 +13537,7 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>11466</v>
       </c>
@@ -13437,7 +13563,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>18231</v>
       </c>
@@ -13463,7 +13589,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>18231</v>
       </c>
@@ -13489,7 +13615,7 @@
         <v>408.48</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>18231</v>
       </c>
@@ -13515,7 +13641,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>18231</v>
       </c>
@@ -13541,7 +13667,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>18688</v>
       </c>
@@ -13567,7 +13693,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>18688</v>
       </c>
@@ -13593,7 +13719,7 @@
         <v>132.83000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>18688</v>
       </c>
@@ -13619,7 +13745,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>18688</v>
       </c>
@@ -13645,7 +13771,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>15538</v>
       </c>
@@ -13671,7 +13797,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>15538</v>
       </c>
@@ -13697,7 +13823,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>15538</v>
       </c>
@@ -13723,7 +13849,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>15538</v>
       </c>
@@ -13749,7 +13875,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>15856</v>
       </c>
@@ -13775,7 +13901,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>15856</v>
       </c>
@@ -13801,7 +13927,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>15856</v>
       </c>
@@ -13827,7 +13953,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>15856</v>
       </c>
@@ -13853,7 +13979,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>15856</v>
       </c>
@@ -13879,7 +14005,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>15859</v>
       </c>
@@ -13905,7 +14031,7 @@
         <v>1531.8</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>15859</v>
       </c>
@@ -13931,7 +14057,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>15859</v>
       </c>
@@ -13957,7 +14083,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>15859</v>
       </c>
@@ -13983,7 +14109,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>3252</v>
       </c>
@@ -14009,7 +14135,7 @@
         <v>714.84</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>3252</v>
       </c>
@@ -14035,7 +14161,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>3252</v>
       </c>
@@ -14061,7 +14187,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>3252</v>
       </c>
@@ -14087,7 +14213,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>10442</v>
       </c>
@@ -14113,7 +14239,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>10442</v>
       </c>
@@ -14139,7 +14265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>10582</v>
       </c>
@@ -14165,7 +14291,7 @@
         <v>212.75</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>10582</v>
       </c>
@@ -14191,7 +14317,7 @@
         <v>273.7</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>10582</v>
       </c>
@@ -14217,7 +14343,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>10582</v>
       </c>
@@ -14243,7 +14369,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>10627</v>
       </c>
@@ -14269,7 +14395,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>10627</v>
       </c>
@@ -14295,7 +14421,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>10627</v>
       </c>
@@ -14321,7 +14447,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>17196</v>
       </c>
@@ -14347,7 +14473,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>17196</v>
       </c>
@@ -14373,7 +14499,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>17196</v>
       </c>
@@ -14399,7 +14525,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>17196</v>
       </c>
@@ -14425,7 +14551,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>5087</v>
       </c>
@@ -14451,7 +14577,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>5087</v>
       </c>
@@ -14477,7 +14603,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>5087</v>
       </c>
@@ -14503,7 +14629,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>5087</v>
       </c>
@@ -14529,7 +14655,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>5087</v>
       </c>
@@ -14555,7 +14681,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>5088</v>
       </c>
@@ -14581,7 +14707,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>5088</v>
       </c>
@@ -14607,7 +14733,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>5088</v>
       </c>
@@ -14633,7 +14759,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>5088</v>
       </c>
@@ -14659,7 +14785,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>5332</v>
       </c>
@@ -14685,7 +14811,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>5332</v>
       </c>
@@ -14711,7 +14837,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>5332</v>
       </c>
@@ -14737,7 +14863,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>5361</v>
       </c>
@@ -14763,7 +14889,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>5361</v>
       </c>
@@ -14789,7 +14915,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>5361</v>
       </c>
@@ -14815,7 +14941,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>5361</v>
       </c>
@@ -14841,7 +14967,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>5361</v>
       </c>
@@ -14867,7 +14993,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>11902</v>
       </c>
@@ -14893,7 +15019,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>11902</v>
       </c>
@@ -14919,7 +15045,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>12365</v>
       </c>
@@ -14945,7 +15071,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>12365</v>
       </c>
@@ -14971,7 +15097,7 @@
         <v>2380.5</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>16520</v>
       </c>
@@ -14997,7 +15123,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>16520</v>
       </c>
@@ -15023,7 +15149,7 @@
         <v>3622.5</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>16886</v>
       </c>
@@ -15049,7 +15175,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>16886</v>
       </c>
@@ -15075,7 +15201,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>16886</v>
       </c>
@@ -15101,7 +15227,7 @@
         <v>4367.7</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>16886</v>
       </c>
@@ -15127,7 +15253,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>16886</v>
       </c>
@@ -15153,7 +15279,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>5393</v>
       </c>
@@ -15179,7 +15305,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>5393</v>
       </c>
@@ -15205,7 +15331,7 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>6119</v>
       </c>
@@ -15231,7 +15357,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>6119</v>
       </c>
@@ -15258,7 +15384,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H561">
+  <autoFilter ref="A1:H561" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="57"/>
@@ -15278,19 +15404,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="23.28515625" customWidth="1"/>
+    <col min="1" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -15310,7 +15436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -15334,7 +15460,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Paul','Brown','Analyst',95000,CONVERT(datetime, 41443))</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -15358,7 +15484,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Kyle','Connors','Analyst',80000,CONVERT(datetime, 40056))</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -15382,7 +15508,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Jason','Gotti','Manager',100000,CONVERT(datetime, 36523))</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -15406,7 +15532,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Joshua','Hansen','Manager',95000,CONVERT(datetime, 41204))</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15430,7 +15556,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Chelsea','Little','Analyst',75000,CONVERT(datetime, 41127))</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -15454,7 +15580,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Matthew','Nelson','Analyst',80000,CONVERT(datetime, 39545))</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -15478,7 +15604,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Matthew','Roberts','Analyst',75000,CONVERT(datetime, 41302))</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -15502,7 +15628,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Scott','Smith','Developer',100000,CONVERT(datetime, 40658))</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -15526,7 +15652,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Tyler','Stout','Developer',110000,CONVERT(datetime, 41204))</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -15550,7 +15676,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Jason','White','Developer',105000,CONVERT(datetime, 42940))</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -15574,7 +15700,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Alex','Wolthuis','Developer',105000,CONVERT(datetime, 40546))</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -15598,7 +15724,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Joseph','Bennett','Analyst',75000,CONVERT(datetime, 38656))</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -15622,7 +15748,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Casey','Cook','Developer',105000,CONVERT(datetime, 38985))</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -15646,7 +15772,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Diane','Graybeal','Developer',150000,CONVERT(datetime, 39175))</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -15670,7 +15796,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Philip','Rogers','Analyst',65000,CONVERT(datetime, 35324))</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -15694,7 +15820,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Shannon','Rusch','Analyst',65000,CONVERT(datetime, 39411))</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -15718,7 +15844,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Joe','Sako','Developer',135000,CONVERT(datetime, 38846))</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -15742,7 +15868,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Adam','Towns','Manager',90000,CONVERT(datetime, 38369))</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -15750,7 +15876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -15762,7 +15888,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('1','Sony','','',,CONVERT(datetime, ))</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -15770,7 +15896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -15778,7 +15904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -15786,7 +15912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -15794,7 +15920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -15813,20 +15939,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -15834,7 +15960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1</v>
       </c>
@@ -15846,7 +15972,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('1','Sony')</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>2</v>
       </c>
@@ -15858,7 +15984,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('2','Nintendo')</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>3</v>
       </c>
@@ -15870,7 +15996,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('3','Microsoft')</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>4</v>
       </c>
@@ -15882,7 +16008,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('4','Sega')</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>5</v>
       </c>
@@ -15894,7 +16020,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('5','Atari')</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>6</v>
       </c>
@@ -15912,22 +16038,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>62</v>
       </c>
@@ -15944,7 +16070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>500</v>
       </c>
@@ -15965,7 +16091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>501</v>
       </c>
@@ -15986,7 +16112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>502</v>
       </c>
@@ -16007,7 +16133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>503</v>
       </c>
@@ -16028,7 +16154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>504</v>
       </c>
@@ -16049,7 +16175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>505</v>
       </c>
@@ -16064,7 +16190,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('505','1','PlayStation 4')</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>506</v>
       </c>
@@ -16079,7 +16205,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('506','3','Xbox')</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>507</v>
       </c>
@@ -16094,7 +16220,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('507','3','Xbox 360')</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>508</v>
       </c>
@@ -16109,7 +16235,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('508','3','Xbox One')</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>509</v>
       </c>
@@ -16124,7 +16250,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('509','5','Atari 2600')</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>510</v>
       </c>
@@ -16139,7 +16265,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('510','5','Atari Lynx')</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>511</v>
       </c>
@@ -16154,7 +16280,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('511','5','Atari 5200')</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>512</v>
       </c>
@@ -16169,7 +16295,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('512','2','Game Cube')</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>513</v>
       </c>
@@ -16184,7 +16310,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('513','2','Wii')</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>514</v>
       </c>
@@ -16199,7 +16325,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('514','2','Wii U')</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>515</v>
       </c>
@@ -16214,7 +16340,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('515','2','Game Boy')</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>516</v>
       </c>
@@ -16229,7 +16355,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('516','2','Game Boy Color')</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>517</v>
       </c>
@@ -16244,7 +16370,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('517','1','PlayStation Vita')</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>518</v>
       </c>
@@ -16259,7 +16385,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('518','2','Super Nintendo')</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>519</v>
       </c>
@@ -16274,7 +16400,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('519','2','Nintendo DS')</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>520</v>
       </c>
@@ -16289,7 +16415,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('520','2','Nintendo 3DS')</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>521</v>
       </c>
@@ -16304,7 +16430,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('521','2','Nintendo Entertainment System')</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>522</v>
       </c>
@@ -16319,7 +16445,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('522','2','Nintendo 64')</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>523</v>
       </c>
@@ -16328,6 +16454,501 @@
       </c>
       <c r="E29" s="3" t="s">
         <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8748CFA-8195-493E-BA0D-9E249A2388D9}">
+  <dimension ref="C4:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C045F4A8-5729-493B-8A8F-2CC535964053}">
+  <dimension ref="C3:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B1CCD9-5528-4971-AF33-D6A80A4E0944}">
+  <dimension ref="C4:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/CS+3550+-+Aggregation+Data+Set.xlsx
+++ b/CS+3550+-+Aggregation+Data+Set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03cjm\Documents\GitHub\3550GroupAssignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5B5984-DAA9-45BF-A0B7-91C84922B6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D23B8DE-2E81-405C-828E-ECC4E86D4F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10596" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10596" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate Data Set" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
   <si>
     <t>InvoiceID</t>
   </si>
@@ -311,12 +311,6 @@
     <t>GameName</t>
   </si>
   <si>
-    <t xml:space="preserve">ESRB </t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>Missile Command</t>
   </si>
   <si>
@@ -420,6 +414,60 @@
   </si>
   <si>
     <t xml:space="preserve">Last of Us </t>
+  </si>
+  <si>
+    <t>IsOnline</t>
+  </si>
+  <si>
+    <t>ratingID</t>
+  </si>
+  <si>
+    <t>INSERT @Console (ConsoleID,ManufacturerID, ConsoleName) VALUES ('523','6','Wonder Swan')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Action')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Adventure')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Role Play')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Strategy')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Platform')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Sports')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Shooter')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Music')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Racing')</t>
+  </si>
+  <si>
+    <t>INSERT Genre(GenreName) VALUES ('Fighting')</t>
+  </si>
+  <si>
+    <t>INSERT ESRB(ESRB) VALUES ('E')</t>
+  </si>
+  <si>
+    <t>INSERT ESRB(ESRB) VALUES ('E 10+')</t>
+  </si>
+  <si>
+    <t>INSERT ESRB(ESRB) VALUES ('T')</t>
+  </si>
+  <si>
+    <t>INSERT ESRB(ESRB) VALUES ('M')</t>
+  </si>
+  <si>
+    <t>INSERT ESRB(ESRB) VALUES ('KA')</t>
   </si>
 </sst>
 </file>
@@ -16041,8 +16089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16441,7 +16489,7 @@
         <v>86</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f>"INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('"&amp;C28&amp;"','"&amp;D28&amp;"','"&amp;E28&amp;"')"</f>
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('522','2','Nintendo 64')</v>
       </c>
     </row>
@@ -16454,6 +16502,9 @@
       </c>
       <c r="E29" s="3" t="s">
         <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -16466,7 +16517,7 @@
   <dimension ref="C4:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16482,13 +16533,13 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -16496,7 +16547,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -16510,7 +16564,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -16527,7 +16581,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -16544,7 +16598,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -16561,7 +16615,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -16578,7 +16632,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -16595,7 +16649,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -16612,7 +16666,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -16629,7 +16683,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -16646,7 +16700,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -16663,7 +16717,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -16680,7 +16734,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -16697,7 +16751,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -16714,7 +16768,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -16731,7 +16785,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -16748,7 +16802,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -16788,60 +16842,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C045F4A8-5729-493B-8A8F-2CC535964053}">
-  <dimension ref="C3:D8"/>
+  <dimension ref="C3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -16851,10 +16920,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B1CCD9-5528-4971-AF33-D6A80A4E0944}">
-  <dimension ref="C4:D14"/>
+  <dimension ref="C4:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16863,92 +16932,122 @@
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/CS+3550+-+Aggregation+Data+Set.xlsx
+++ b/CS+3550+-+Aggregation+Data+Set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03cjm\Documents\GitHub\3550GroupAssignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\CS3550 adv db\Assign1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D23B8DE-2E81-405C-828E-ECC4E86D4F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1137AF-C599-4B85-8CBA-0EE9027E7642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10596" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10590" tabRatio="775" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate Data Set" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Aggregate Data Set'!$A$1:$H$561</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -317,9 +312,6 @@
     <t>ESRB</t>
   </si>
   <si>
-    <t>RattingID</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -419,9 +411,6 @@
     <t>IsOnline</t>
   </si>
   <si>
-    <t>ratingID</t>
-  </si>
-  <si>
     <t>INSERT @Console (ConsoleID,ManufacturerID, ConsoleName) VALUES ('523','6','Wonder Swan')</t>
   </si>
   <si>
@@ -468,6 +457,12 @@
   </si>
   <si>
     <t>INSERT ESRB(ESRB) VALUES ('KA')</t>
+  </si>
+  <si>
+    <t>GenreID</t>
+  </si>
+  <si>
+    <t>RatingID</t>
   </si>
 </sst>
 </file>
@@ -835,17 +830,17 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6930</v>
       </c>
@@ -897,7 +892,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8653</v>
       </c>
@@ -923,7 +918,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6930</v>
       </c>
@@ -949,7 +944,7 @@
         <v>2380.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7224</v>
       </c>
@@ -975,7 +970,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7224</v>
       </c>
@@ -1001,7 +996,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4841</v>
       </c>
@@ -1027,7 +1022,7 @@
         <v>402.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4841</v>
       </c>
@@ -1053,7 +1048,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4841</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6930</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>102.12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4841</v>
       </c>
@@ -1131,7 +1126,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6930</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7224</v>
       </c>
@@ -1183,7 +1178,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6930</v>
       </c>
@@ -1209,7 +1204,7 @@
         <v>551.42999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8653</v>
       </c>
@@ -1235,7 +1230,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6611</v>
       </c>
@@ -1261,7 +1256,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8075</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6611</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1417</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6611</v>
       </c>
@@ -1365,7 +1360,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13874</v>
       </c>
@@ -1391,7 +1386,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6611</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8075</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8075</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>312.8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4006</v>
       </c>
@@ -1495,7 +1490,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6611</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8075</v>
       </c>
@@ -1547,7 +1542,7 @@
         <v>258.75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13874</v>
       </c>
@@ -1573,7 +1568,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4006</v>
       </c>
@@ -1599,7 +1594,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13874</v>
       </c>
@@ -1625,7 +1620,7 @@
         <v>5692.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4006</v>
       </c>
@@ -1651,7 +1646,7 @@
         <v>335.34</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13874</v>
       </c>
@@ -1677,7 +1672,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1417</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8075</v>
       </c>
@@ -1729,7 +1724,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11883</v>
       </c>
@@ -1755,7 +1750,7 @@
         <v>86.25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11883</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11883</v>
       </c>
@@ -1807,7 +1802,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11231</v>
       </c>
@@ -1833,7 +1828,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11231</v>
       </c>
@@ -1859,7 +1854,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11231</v>
       </c>
@@ -1885,7 +1880,7 @@
         <v>3622.5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3105</v>
       </c>
@@ -1911,7 +1906,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3105</v>
       </c>
@@ -1937,7 +1932,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4731</v>
       </c>
@@ -1963,7 +1958,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3105</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4731</v>
       </c>
@@ -2015,7 +2010,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4731</v>
       </c>
@@ -2041,7 +2036,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3105</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16000</v>
       </c>
@@ -2093,7 +2088,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16000</v>
       </c>
@@ -2119,7 +2114,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5939</v>
       </c>
@@ -2145,7 +2140,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5939</v>
       </c>
@@ -2171,7 +2166,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16000</v>
       </c>
@@ -2197,7 +2192,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13921</v>
       </c>
@@ -2223,7 +2218,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5939</v>
       </c>
@@ -2249,7 +2244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11273</v>
       </c>
@@ -2275,7 +2270,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16000</v>
       </c>
@@ -2301,7 +2296,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13921</v>
       </c>
@@ -2327,7 +2322,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11273</v>
       </c>
@@ -2353,7 +2348,7 @@
         <v>1131.5999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14464</v>
       </c>
@@ -2379,7 +2374,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8364</v>
       </c>
@@ -2405,7 +2400,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8364</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8364</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8364</v>
       </c>
@@ -2483,7 +2478,7 @@
         <v>149.04</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7947</v>
       </c>
@@ -2509,7 +2504,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7947</v>
       </c>
@@ -2535,7 +2530,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16721</v>
       </c>
@@ -2561,7 +2556,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16721</v>
       </c>
@@ -2587,7 +2582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16721</v>
       </c>
@@ -2613,7 +2608,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7947</v>
       </c>
@@ -2639,7 +2634,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16721</v>
       </c>
@@ -2665,7 +2660,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16721</v>
       </c>
@@ -2691,7 +2686,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6636</v>
       </c>
@@ -2717,7 +2712,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1919</v>
       </c>
@@ -2743,7 +2738,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6636</v>
       </c>
@@ -2769,7 +2764,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6636</v>
       </c>
@@ -2795,7 +2790,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12994</v>
       </c>
@@ -2821,7 +2816,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -2847,7 +2842,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12994</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1919</v>
       </c>
@@ -2899,7 +2894,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6636</v>
       </c>
@@ -2925,7 +2920,7 @@
         <v>282.89999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12994</v>
       </c>
@@ -2951,7 +2946,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1919</v>
       </c>
@@ -2977,7 +2972,7 @@
         <v>11385</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12994</v>
       </c>
@@ -3003,7 +2998,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6636</v>
       </c>
@@ -3029,7 +3024,7 @@
         <v>919.08</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5027</v>
       </c>
@@ -3055,7 +3050,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -3081,7 +3076,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5027</v>
       </c>
@@ -3133,7 +3128,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5027</v>
       </c>
@@ -3159,7 +3154,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3185,7 +3180,7 @@
         <v>298.08</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5930</v>
       </c>
@@ -3211,7 +3206,7 @@
         <v>402.5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5930</v>
       </c>
@@ -3237,7 +3232,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5930</v>
       </c>
@@ -3263,7 +3258,7 @@
         <v>905.28</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -3289,7 +3284,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7</v>
       </c>
@@ -3315,7 +3310,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7</v>
       </c>
@@ -3367,7 +3362,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>49</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>377</v>
       </c>
@@ -3419,7 +3414,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>377</v>
       </c>
@@ -3445,7 +3440,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>488</v>
       </c>
@@ -3471,7 +3466,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>488</v>
       </c>
@@ -3497,7 +3492,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>488</v>
       </c>
@@ -3523,7 +3518,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>488</v>
       </c>
@@ -3549,7 +3544,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>8045</v>
       </c>
@@ -3575,7 +3570,7 @@
         <v>1897.5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>8045</v>
       </c>
@@ -3601,7 +3596,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8045</v>
       </c>
@@ -3627,7 +3622,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8045</v>
       </c>
@@ -3653,7 +3648,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14819</v>
       </c>
@@ -3679,7 +3674,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>14819</v>
       </c>
@@ -3705,7 +3700,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14819</v>
       </c>
@@ -3731,7 +3726,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14869</v>
       </c>
@@ -3757,7 +3752,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14869</v>
       </c>
@@ -3783,7 +3778,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>14869</v>
       </c>
@@ -3809,7 +3804,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14869</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14869</v>
       </c>
@@ -3861,7 +3856,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>14022</v>
       </c>
@@ -3887,7 +3882,7 @@
         <v>377.2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14022</v>
       </c>
@@ -3913,7 +3908,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14022</v>
       </c>
@@ -3939,7 +3934,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14022</v>
       </c>
@@ -3965,7 +3960,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>14179</v>
       </c>
@@ -3991,7 +3986,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14179</v>
       </c>
@@ -4017,7 +4012,7 @@
         <v>73.31</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>14179</v>
       </c>
@@ -4043,7 +4038,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14179</v>
       </c>
@@ -4069,7 +4064,7 @@
         <v>452.64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1729</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1729</v>
       </c>
@@ -4121,7 +4116,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8574</v>
       </c>
@@ -4147,7 +4142,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8574</v>
       </c>
@@ -4173,7 +4168,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8574</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8574</v>
       </c>
@@ -4225,7 +4220,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8574</v>
       </c>
@@ -4251,7 +4246,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>15196</v>
       </c>
@@ -4277,7 +4272,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15196</v>
       </c>
@@ -4303,7 +4298,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>15196</v>
       </c>
@@ -4329,7 +4324,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4413</v>
       </c>
@@ -4355,7 +4350,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4413</v>
       </c>
@@ -4381,7 +4376,7 @@
         <v>469.2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4413</v>
       </c>
@@ -4407,7 +4402,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4413</v>
       </c>
@@ -4433,7 +4428,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11187</v>
       </c>
@@ -4459,7 +4454,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>11187</v>
       </c>
@@ -4485,7 +4480,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>11341</v>
       </c>
@@ -4511,7 +4506,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>11341</v>
       </c>
@@ -4537,7 +4532,7 @@
         <v>191.48</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>11341</v>
       </c>
@@ -4563,7 +4558,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>11341</v>
       </c>
@@ -4589,7 +4584,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>11341</v>
       </c>
@@ -4615,7 +4610,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>18176</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>18176</v>
       </c>
@@ -4667,7 +4662,7 @@
         <v>351.9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>18176</v>
       </c>
@@ -4693,7 +4688,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>18176</v>
       </c>
@@ -4719,7 +4714,7 @@
         <v>520.26</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>18263</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2505</v>
       </c>
@@ -4771,7 +4766,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2505</v>
       </c>
@@ -4797,7 +4792,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2505</v>
       </c>
@@ -4823,7 +4818,7 @@
         <v>2656.5</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9315</v>
       </c>
@@ -4849,7 +4844,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9315</v>
       </c>
@@ -4875,7 +4870,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>9315</v>
       </c>
@@ -4901,7 +4896,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>9315</v>
       </c>
@@ -4927,7 +4922,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9315</v>
       </c>
@@ -4953,7 +4948,7 @@
         <v>195.5</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15743</v>
       </c>
@@ -4979,7 +4974,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15743</v>
       </c>
@@ -5005,7 +5000,7 @@
         <v>113.16</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2732</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2732</v>
       </c>
@@ -5057,7 +5052,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2868</v>
       </c>
@@ -5083,7 +5078,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2868</v>
       </c>
@@ -5109,7 +5104,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2868</v>
       </c>
@@ -5135,7 +5130,7 @@
         <v>74.52</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2868</v>
       </c>
@@ -5161,7 +5156,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>10762</v>
       </c>
@@ -5187,7 +5182,7 @@
         <v>452.64</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10762</v>
       </c>
@@ -5213,7 +5208,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>10762</v>
       </c>
@@ -5239,7 +5234,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10762</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>10762</v>
       </c>
@@ -5291,7 +5286,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4934</v>
       </c>
@@ -5317,7 +5312,7 @@
         <v>1021.2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4934</v>
       </c>
@@ -5343,7 +5338,7 @@
         <v>306.36</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4934</v>
       </c>
@@ -5369,7 +5364,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4934</v>
       </c>
@@ -5395,7 +5390,7 @@
         <v>9016</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4934</v>
       </c>
@@ -5421,7 +5416,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5066</v>
       </c>
@@ -5447,7 +5442,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5066</v>
       </c>
@@ -5473,7 +5468,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5066</v>
       </c>
@@ -5499,7 +5494,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5351</v>
       </c>
@@ -5525,7 +5520,7 @@
         <v>346.84</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5351</v>
       </c>
@@ -5551,7 +5546,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5351</v>
       </c>
@@ -5577,7 +5572,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>12578</v>
       </c>
@@ -5603,7 +5598,7 @@
         <v>11178</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>12578</v>
       </c>
@@ -5629,7 +5624,7 @@
         <v>1000.5</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>16210</v>
       </c>
@@ -5655,7 +5650,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>16210</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>16210</v>
       </c>
@@ -5707,7 +5702,7 @@
         <v>520.26</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>16210</v>
       </c>
@@ -5733,7 +5728,7 @@
         <v>204.24</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>16210</v>
       </c>
@@ -5759,7 +5754,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>16665</v>
       </c>
@@ -5785,7 +5780,7 @@
         <v>2294.25</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>16665</v>
       </c>
@@ -5811,7 +5806,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>16665</v>
       </c>
@@ -5837,7 +5832,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5761</v>
       </c>
@@ -5863,7 +5858,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5761</v>
       </c>
@@ -5889,7 +5884,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2</v>
       </c>
@@ -5915,7 +5910,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2</v>
       </c>
@@ -5941,7 +5936,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>46</v>
       </c>
@@ -5967,7 +5962,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>46</v>
       </c>
@@ -5993,7 +5988,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>491</v>
       </c>
@@ -6019,7 +6014,7 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>491</v>
       </c>
@@ -6045,7 +6040,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>491</v>
       </c>
@@ -6071,7 +6066,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>491</v>
       </c>
@@ -6097,7 +6092,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>491</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>492</v>
       </c>
@@ -6149,7 +6144,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>492</v>
       </c>
@@ -6175,7 +6170,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>898</v>
       </c>
@@ -6201,7 +6196,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>898</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v>149.04</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>898</v>
       </c>
@@ -6253,7 +6248,7 @@
         <v>100.63</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>898</v>
       </c>
@@ -6279,7 +6274,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7435</v>
       </c>
@@ -6305,7 +6300,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7435</v>
       </c>
@@ -6331,7 +6326,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7898</v>
       </c>
@@ -6357,7 +6352,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7898</v>
       </c>
@@ -6383,7 +6378,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7898</v>
       </c>
@@ -6409,7 +6404,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7898</v>
       </c>
@@ -6435,7 +6430,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7898</v>
       </c>
@@ -6461,7 +6456,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>14982</v>
       </c>
@@ -6487,7 +6482,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>13675</v>
       </c>
@@ -6513,7 +6508,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>13675</v>
       </c>
@@ -6539,7 +6534,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>13675</v>
       </c>
@@ -6565,7 +6560,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13675</v>
       </c>
@@ -6591,7 +6586,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1422</v>
       </c>
@@ -6617,7 +6612,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1422</v>
       </c>
@@ -6643,7 +6638,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1422</v>
       </c>
@@ -6669,7 +6664,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1422</v>
       </c>
@@ -6695,7 +6690,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1791</v>
       </c>
@@ -6721,7 +6716,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1791</v>
       </c>
@@ -6747,7 +6742,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1791</v>
       </c>
@@ -6773,7 +6768,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1791</v>
       </c>
@@ -6799,7 +6794,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>8384</v>
       </c>
@@ -6825,7 +6820,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8384</v>
       </c>
@@ -6851,7 +6846,7 @@
         <v>60.38</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>8384</v>
       </c>
@@ -6877,7 +6872,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>8932</v>
       </c>
@@ -6903,7 +6898,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8932</v>
       </c>
@@ -6929,7 +6924,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8932</v>
       </c>
@@ -6955,7 +6950,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>14982</v>
       </c>
@@ -6981,7 +6976,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>3930</v>
       </c>
@@ -7007,7 +7002,7 @@
         <v>226.32</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3930</v>
       </c>
@@ -7033,7 +7028,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>11045</v>
       </c>
@@ -7059,7 +7054,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11189</v>
       </c>
@@ -7085,7 +7080,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>11189</v>
       </c>
@@ -7111,7 +7106,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11189</v>
       </c>
@@ -7137,7 +7132,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11418</v>
       </c>
@@ -7163,7 +7158,7 @@
         <v>1552.5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11418</v>
       </c>
@@ -7189,7 +7184,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11418</v>
       </c>
@@ -7215,7 +7210,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11418</v>
       </c>
@@ -7241,7 +7236,7 @@
         <v>459.54</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11418</v>
       </c>
@@ -7267,7 +7262,7 @@
         <v>234.6</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>18016</v>
       </c>
@@ -7293,7 +7288,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>18016</v>
       </c>
@@ -7319,7 +7314,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>18016</v>
       </c>
@@ -7345,7 +7340,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>18016</v>
       </c>
@@ -7371,7 +7366,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>18319</v>
       </c>
@@ -7397,7 +7392,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>18319</v>
       </c>
@@ -7423,7 +7418,7 @@
         <v>1293.75</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>18531</v>
       </c>
@@ -7449,7 +7444,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>18531</v>
       </c>
@@ -7475,7 +7470,7 @@
         <v>1190.25</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>18531</v>
       </c>
@@ -7501,7 +7496,7 @@
         <v>3829.5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>18531</v>
       </c>
@@ -7527,7 +7522,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>18531</v>
       </c>
@@ -7553,7 +7548,7 @@
         <v>6831</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>18618</v>
       </c>
@@ -7579,7 +7574,7 @@
         <v>510.6</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1791</v>
       </c>
@@ -7605,7 +7600,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2065</v>
       </c>
@@ -7631,7 +7626,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2065</v>
       </c>
@@ -7657,7 +7652,7 @@
         <v>1322.5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>15407</v>
       </c>
@@ -7683,7 +7678,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>15407</v>
       </c>
@@ -7709,7 +7704,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>15407</v>
       </c>
@@ -7735,7 +7730,7 @@
         <v>704.38</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16065</v>
       </c>
@@ -7761,7 +7756,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>16065</v>
       </c>
@@ -7787,7 +7782,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>16065</v>
       </c>
@@ -7813,7 +7808,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>16065</v>
       </c>
@@ -7839,7 +7834,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2694</v>
       </c>
@@ -7865,7 +7860,7 @@
         <v>143.75</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2694</v>
       </c>
@@ -7891,7 +7886,7 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2864</v>
       </c>
@@ -7917,7 +7912,7 @@
         <v>258.75</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2864</v>
       </c>
@@ -7943,7 +7938,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2864</v>
       </c>
@@ -7969,7 +7964,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2864</v>
       </c>
@@ -7995,7 +7990,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2864</v>
       </c>
@@ -8021,7 +8016,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>3351</v>
       </c>
@@ -8047,7 +8042,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3351</v>
       </c>
@@ -8073,7 +8068,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>10276</v>
       </c>
@@ -8099,7 +8094,7 @@
         <v>905.63</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>10276</v>
       </c>
@@ -8125,7 +8120,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10276</v>
       </c>
@@ -8151,7 +8146,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>17112</v>
       </c>
@@ -8177,7 +8172,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>17112</v>
       </c>
@@ -8203,7 +8198,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>17112</v>
       </c>
@@ -8229,7 +8224,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>17112</v>
       </c>
@@ -8255,7 +8250,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>17112</v>
       </c>
@@ -8281,7 +8276,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>17386</v>
       </c>
@@ -8307,7 +8302,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>17386</v>
       </c>
@@ -8333,7 +8328,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>17386</v>
       </c>
@@ -8359,7 +8354,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>17386</v>
       </c>
@@ -8385,7 +8380,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>17838</v>
       </c>
@@ -8411,7 +8406,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17838</v>
       </c>
@@ -8437,7 +8432,7 @@
         <v>792.12</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>17838</v>
       </c>
@@ -8463,7 +8458,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4714</v>
       </c>
@@ -8489,7 +8484,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4714</v>
       </c>
@@ -8515,7 +8510,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>4714</v>
       </c>
@@ -8541,7 +8536,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4714</v>
       </c>
@@ -8567,7 +8562,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>4714</v>
       </c>
@@ -8593,7 +8588,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>4940</v>
       </c>
@@ -8619,7 +8614,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>4940</v>
       </c>
@@ -8645,7 +8640,7 @@
         <v>260.82</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4940</v>
       </c>
@@ -8671,7 +8666,7 @@
         <v>236.33</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4941</v>
       </c>
@@ -8697,7 +8692,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>4941</v>
       </c>
@@ -8723,7 +8718,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4941</v>
       </c>
@@ -8749,7 +8744,7 @@
         <v>1638.75</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4941</v>
       </c>
@@ -8775,7 +8770,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>16317</v>
       </c>
@@ -8801,7 +8796,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>16317</v>
       </c>
@@ -8827,7 +8822,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>16317</v>
       </c>
@@ -8853,7 +8848,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>16317</v>
       </c>
@@ -8879,7 +8874,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>16317</v>
       </c>
@@ -8905,7 +8900,7 @@
         <v>282.89999999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5485</v>
       </c>
@@ -8931,7 +8926,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5485</v>
       </c>
@@ -8957,7 +8952,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5485</v>
       </c>
@@ -8983,7 +8978,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>5723</v>
       </c>
@@ -9009,7 +9004,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5723</v>
       </c>
@@ -9035,7 +9030,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5723</v>
       </c>
@@ -9061,7 +9056,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>13347</v>
       </c>
@@ -9087,7 +9082,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>13347</v>
       </c>
@@ -9113,7 +9108,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>13347</v>
       </c>
@@ -9139,7 +9134,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>13347</v>
       </c>
@@ -9165,7 +9160,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>13347</v>
       </c>
@@ -9191,7 +9186,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>5</v>
       </c>
@@ -9217,7 +9212,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>5</v>
       </c>
@@ -9243,7 +9238,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5</v>
       </c>
@@ -9269,7 +9264,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>48</v>
       </c>
@@ -9295,7 +9290,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>48</v>
       </c>
@@ -9321,7 +9316,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>7274</v>
       </c>
@@ -9347,7 +9342,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>7274</v>
       </c>
@@ -9373,7 +9368,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>7274</v>
       </c>
@@ -9399,7 +9394,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>7274</v>
       </c>
@@ -9425,7 +9420,7 @@
         <v>293.25</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>7449</v>
       </c>
@@ -9451,7 +9446,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>7449</v>
       </c>
@@ -9477,7 +9472,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>14403</v>
       </c>
@@ -9503,7 +9498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>14403</v>
       </c>
@@ -9529,7 +9524,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>6804</v>
       </c>
@@ -9555,7 +9550,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6804</v>
       </c>
@@ -9581,7 +9576,7 @@
         <v>10867.5</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>13610</v>
       </c>
@@ -9607,7 +9602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>13610</v>
       </c>
@@ -9633,7 +9628,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>13610</v>
       </c>
@@ -9659,7 +9654,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>13865</v>
       </c>
@@ -9685,7 +9680,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>13865</v>
       </c>
@@ -9711,7 +9706,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>13865</v>
       </c>
@@ -9737,7 +9732,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1449</v>
       </c>
@@ -9763,7 +9758,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1449</v>
       </c>
@@ -9789,7 +9784,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1449</v>
       </c>
@@ -9815,7 +9810,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1449</v>
       </c>
@@ -9841,7 +9836,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1449</v>
       </c>
@@ -9867,7 +9862,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>8085</v>
       </c>
@@ -9893,7 +9888,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>8741</v>
       </c>
@@ -9919,7 +9914,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>8741</v>
       </c>
@@ -9945,7 +9940,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>8741</v>
       </c>
@@ -9971,7 +9966,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>8741</v>
       </c>
@@ -9997,7 +9992,7 @@
         <v>12420</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>15018</v>
       </c>
@@ -10023,7 +10018,7 @@
         <v>1851.5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>15018</v>
       </c>
@@ -10049,7 +10044,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>15018</v>
       </c>
@@ -10075,7 +10070,7 @@
         <v>264.5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3848</v>
       </c>
@@ -10101,7 +10096,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>3848</v>
       </c>
@@ -10127,7 +10122,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3848</v>
       </c>
@@ -10153,7 +10148,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3848</v>
       </c>
@@ -10179,7 +10174,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>3848</v>
       </c>
@@ -10205,7 +10200,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3906</v>
       </c>
@@ -10231,7 +10226,7 @@
         <v>204.24</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3906</v>
       </c>
@@ -10257,7 +10252,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>4364</v>
       </c>
@@ -10283,7 +10278,7 @@
         <v>346.15</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>4364</v>
       </c>
@@ -10309,7 +10304,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4364</v>
       </c>
@@ -10335,7 +10330,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>4364</v>
       </c>
@@ -10361,7 +10356,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>4465</v>
       </c>
@@ -10387,7 +10382,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>4465</v>
       </c>
@@ -10413,7 +10408,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>4465</v>
       </c>
@@ -10439,7 +10434,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>11051</v>
       </c>
@@ -10465,7 +10460,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>11051</v>
       </c>
@@ -10491,7 +10486,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>11051</v>
       </c>
@@ -10517,7 +10512,7 @@
         <v>630.20000000000005</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>11051</v>
       </c>
@@ -10543,7 +10538,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>11469</v>
       </c>
@@ -10569,7 +10564,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>11469</v>
       </c>
@@ -10595,7 +10590,7 @@
         <v>3415.5</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>11469</v>
       </c>
@@ -10621,7 +10616,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>11512</v>
       </c>
@@ -10647,7 +10642,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>11512</v>
       </c>
@@ -10673,7 +10668,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>11512</v>
       </c>
@@ -10699,7 +10694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>11512</v>
       </c>
@@ -10725,7 +10720,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>11512</v>
       </c>
@@ -10751,7 +10746,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>18386</v>
       </c>
@@ -10777,7 +10772,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>18386</v>
       </c>
@@ -10803,7 +10798,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>18386</v>
       </c>
@@ -10829,7 +10824,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>18386</v>
       </c>
@@ -10855,7 +10850,7 @@
         <v>3967.5</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>18386</v>
       </c>
@@ -10881,7 +10876,7 @@
         <v>1437.5</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>18466</v>
       </c>
@@ -10907,7 +10902,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>18466</v>
       </c>
@@ -10933,7 +10928,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>9616</v>
       </c>
@@ -10959,7 +10954,7 @@
         <v>9660</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>9616</v>
       </c>
@@ -10985,7 +10980,7 @@
         <v>7969.5</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>9616</v>
       </c>
@@ -11011,7 +11006,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>9616</v>
       </c>
@@ -11037,7 +11032,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>9616</v>
       </c>
@@ -11063,7 +11058,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>9792</v>
       </c>
@@ -11089,7 +11084,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>9792</v>
       </c>
@@ -11115,7 +11110,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>9792</v>
       </c>
@@ -11141,7 +11136,7 @@
         <v>471.5</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>15418</v>
       </c>
@@ -11167,7 +11162,7 @@
         <v>301.88</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>15418</v>
       </c>
@@ -11193,7 +11188,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>15418</v>
       </c>
@@ -11219,7 +11214,7 @@
         <v>2012.5</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>15418</v>
       </c>
@@ -11245,7 +11240,7 @@
         <v>630.20000000000005</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>15418</v>
       </c>
@@ -11271,7 +11266,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>15924</v>
       </c>
@@ -11297,7 +11292,7 @@
         <v>281.75</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>15924</v>
       </c>
@@ -11323,7 +11318,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>15924</v>
       </c>
@@ -11349,7 +11344,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>15924</v>
       </c>
@@ -11375,7 +11370,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>9963</v>
       </c>
@@ -11401,7 +11396,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>9963</v>
       </c>
@@ -11427,7 +11422,7 @@
         <v>271.69</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>9963</v>
       </c>
@@ -11453,7 +11448,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>9963</v>
       </c>
@@ -11479,7 +11474,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>9963</v>
       </c>
@@ -11505,7 +11500,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>9987</v>
       </c>
@@ -11531,7 +11526,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>9987</v>
       </c>
@@ -11557,7 +11552,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>10001</v>
       </c>
@@ -11583,7 +11578,7 @@
         <v>73.31</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>10001</v>
       </c>
@@ -11609,7 +11604,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>10001</v>
       </c>
@@ -11635,7 +11630,7 @@
         <v>792.12</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>10001</v>
       </c>
@@ -11661,7 +11656,7 @@
         <v>109.25</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>10025</v>
       </c>
@@ -11687,7 +11682,7 @@
         <v>612.72</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>17402</v>
       </c>
@@ -11713,7 +11708,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>17402</v>
       </c>
@@ -11739,7 +11734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>17402</v>
       </c>
@@ -11765,7 +11760,7 @@
         <v>351.9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>17402</v>
       </c>
@@ -11791,7 +11786,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>17402</v>
       </c>
@@ -11817,7 +11812,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>17617</v>
       </c>
@@ -11843,7 +11838,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>17617</v>
       </c>
@@ -11869,7 +11864,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>17617</v>
       </c>
@@ -11895,7 +11890,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>17617</v>
       </c>
@@ -11921,7 +11916,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>17617</v>
       </c>
@@ -11947,7 +11942,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>17712</v>
       </c>
@@ -11973,7 +11968,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>17712</v>
       </c>
@@ -11999,7 +11994,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>17712</v>
       </c>
@@ -12025,7 +12020,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>17712</v>
       </c>
@@ -12051,7 +12046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>5241</v>
       </c>
@@ -12077,7 +12072,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>5241</v>
       </c>
@@ -12103,7 +12098,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>5241</v>
       </c>
@@ -12129,7 +12124,7 @@
         <v>714.84</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>11711</v>
       </c>
@@ -12155,7 +12150,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>11711</v>
       </c>
@@ -12181,7 +12176,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>11711</v>
       </c>
@@ -12207,7 +12202,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>11711</v>
       </c>
@@ -12233,7 +12228,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>11725</v>
       </c>
@@ -12259,7 +12254,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>11725</v>
       </c>
@@ -12285,7 +12280,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>11725</v>
       </c>
@@ -12311,7 +12306,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>5478</v>
       </c>
@@ -12337,7 +12332,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>5478</v>
       </c>
@@ -12363,7 +12358,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>5478</v>
       </c>
@@ -12389,7 +12384,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>5478</v>
       </c>
@@ -12415,7 +12410,7 @@
         <v>181.13</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>13390</v>
       </c>
@@ -12441,7 +12436,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>13390</v>
       </c>
@@ -12467,7 +12462,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>13390</v>
       </c>
@@ -12493,7 +12488,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>8</v>
       </c>
@@ -12519,7 +12514,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>8</v>
       </c>
@@ -12545,7 +12540,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>8</v>
       </c>
@@ -12571,7 +12566,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>50</v>
       </c>
@@ -12597,7 +12592,7 @@
         <v>97.81</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>659</v>
       </c>
@@ -12623,7 +12618,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>659</v>
       </c>
@@ -12649,7 +12644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>659</v>
       </c>
@@ -12675,7 +12670,7 @@
         <v>172.5</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>758</v>
       </c>
@@ -12701,7 +12696,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>758</v>
       </c>
@@ -12727,7 +12722,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7214</v>
       </c>
@@ -12753,7 +12748,7 @@
         <v>247.25</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>7214</v>
       </c>
@@ -12779,7 +12774,7 @@
         <v>12075</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>7214</v>
       </c>
@@ -12805,7 +12800,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>7214</v>
       </c>
@@ -12831,7 +12826,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>7214</v>
       </c>
@@ -12857,7 +12852,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>14471</v>
       </c>
@@ -12883,7 +12878,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>14471</v>
       </c>
@@ -12909,7 +12904,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>14471</v>
       </c>
@@ -12935,7 +12930,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>14471</v>
       </c>
@@ -12961,7 +12956,7 @@
         <v>3001.5</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>14814</v>
       </c>
@@ -12987,7 +12982,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>14814</v>
       </c>
@@ -13013,7 +13008,7 @@
         <v>8452.5</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>14814</v>
       </c>
@@ -13039,7 +13034,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>14814</v>
       </c>
@@ -13065,7 +13060,7 @@
         <v>143.75</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>14974</v>
       </c>
@@ -13091,7 +13086,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>6914</v>
       </c>
@@ -13117,7 +13112,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>6914</v>
       </c>
@@ -13143,7 +13138,7 @@
         <v>3018.75</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>6914</v>
       </c>
@@ -13169,7 +13164,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>7139</v>
       </c>
@@ -13195,7 +13190,7 @@
         <v>153.18</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>7139</v>
       </c>
@@ -13221,7 +13216,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>14021</v>
       </c>
@@ -13247,7 +13242,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>14021</v>
       </c>
@@ -13273,7 +13268,7 @@
         <v>86.71</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>14021</v>
       </c>
@@ -13299,7 +13294,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>14021</v>
       </c>
@@ -13325,7 +13320,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>8560</v>
       </c>
@@ -13351,7 +13346,7 @@
         <v>408.48</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>8560</v>
       </c>
@@ -13377,7 +13372,7 @@
         <v>3622.5</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>8560</v>
       </c>
@@ -13403,7 +13398,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>11072</v>
       </c>
@@ -13429,7 +13424,7 @@
         <v>6037.5</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>11072</v>
       </c>
@@ -13455,7 +13450,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>11072</v>
       </c>
@@ -13481,7 +13476,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>11072</v>
       </c>
@@ -13507,7 +13502,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>11374</v>
       </c>
@@ -13533,7 +13528,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>11374</v>
       </c>
@@ -13559,7 +13554,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>11466</v>
       </c>
@@ -13585,7 +13580,7 @@
         <v>393.88</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>11466</v>
       </c>
@@ -13611,7 +13606,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>18231</v>
       </c>
@@ -13637,7 +13632,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>18231</v>
       </c>
@@ -13663,7 +13658,7 @@
         <v>408.48</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>18231</v>
       </c>
@@ -13689,7 +13684,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>18231</v>
       </c>
@@ -13715,7 +13710,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>18688</v>
       </c>
@@ -13741,7 +13736,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>18688</v>
       </c>
@@ -13767,7 +13762,7 @@
         <v>132.83000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>18688</v>
       </c>
@@ -13793,7 +13788,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>18688</v>
       </c>
@@ -13819,7 +13814,7 @@
         <v>201.25</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>15538</v>
       </c>
@@ -13845,7 +13840,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>15538</v>
       </c>
@@ -13871,7 +13866,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>15538</v>
       </c>
@@ -13897,7 +13892,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>15538</v>
       </c>
@@ -13923,7 +13918,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>15856</v>
       </c>
@@ -13949,7 +13944,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>15856</v>
       </c>
@@ -13975,7 +13970,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>15856</v>
       </c>
@@ -14001,7 +13996,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>15856</v>
       </c>
@@ -14027,7 +14022,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>15856</v>
       </c>
@@ -14053,7 +14048,7 @@
         <v>1987.2</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>15859</v>
       </c>
@@ -14079,7 +14074,7 @@
         <v>1531.8</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>15859</v>
       </c>
@@ -14105,7 +14100,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>15859</v>
       </c>
@@ -14131,7 +14126,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>15859</v>
       </c>
@@ -14157,7 +14152,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>3252</v>
       </c>
@@ -14183,7 +14178,7 @@
         <v>714.84</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3252</v>
       </c>
@@ -14209,7 +14204,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>3252</v>
       </c>
@@ -14235,7 +14230,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>3252</v>
       </c>
@@ -14261,7 +14256,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>10442</v>
       </c>
@@ -14287,7 +14282,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>10442</v>
       </c>
@@ -14313,7 +14308,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>10582</v>
       </c>
@@ -14339,7 +14334,7 @@
         <v>212.75</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>10582</v>
       </c>
@@ -14365,7 +14360,7 @@
         <v>273.7</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>10582</v>
       </c>
@@ -14391,7 +14386,7 @@
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>10582</v>
       </c>
@@ -14417,7 +14412,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>10627</v>
       </c>
@@ -14443,7 +14438,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>10627</v>
       </c>
@@ -14469,7 +14464,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>10627</v>
       </c>
@@ -14495,7 +14490,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>17196</v>
       </c>
@@ -14521,7 +14516,7 @@
         <v>1490.4</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>17196</v>
       </c>
@@ -14547,7 +14542,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>17196</v>
       </c>
@@ -14573,7 +14568,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>17196</v>
       </c>
@@ -14599,7 +14594,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>5087</v>
       </c>
@@ -14625,7 +14620,7 @@
         <v>993.6</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>5087</v>
       </c>
@@ -14651,7 +14646,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>5087</v>
       </c>
@@ -14677,7 +14672,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>5087</v>
       </c>
@@ -14703,7 +14698,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5087</v>
       </c>
@@ -14729,7 +14724,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5088</v>
       </c>
@@ -14755,7 +14750,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>5088</v>
       </c>
@@ -14781,7 +14776,7 @@
         <v>134.55000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5088</v>
       </c>
@@ -14807,7 +14802,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>5088</v>
       </c>
@@ -14833,7 +14828,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>5332</v>
       </c>
@@ -14859,7 +14854,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>5332</v>
       </c>
@@ -14885,7 +14880,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>5332</v>
       </c>
@@ -14911,7 +14906,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>5361</v>
       </c>
@@ -14937,7 +14932,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>5361</v>
       </c>
@@ -14963,7 +14958,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>5361</v>
       </c>
@@ -14989,7 +14984,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>5361</v>
       </c>
@@ -15015,7 +15010,7 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>5361</v>
       </c>
@@ -15041,7 +15036,7 @@
         <v>745.2</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>11902</v>
       </c>
@@ -15067,7 +15062,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>11902</v>
       </c>
@@ -15093,7 +15088,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>12365</v>
       </c>
@@ -15119,7 +15114,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>12365</v>
       </c>
@@ -15145,7 +15140,7 @@
         <v>2380.5</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>16520</v>
       </c>
@@ -15171,7 +15166,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>16520</v>
       </c>
@@ -15197,7 +15192,7 @@
         <v>3622.5</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>16886</v>
       </c>
@@ -15223,7 +15218,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>16886</v>
       </c>
@@ -15249,7 +15244,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>16886</v>
       </c>
@@ -15275,7 +15270,7 @@
         <v>4367.7</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>16886</v>
       </c>
@@ -15301,7 +15296,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>16886</v>
       </c>
@@ -15327,7 +15322,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>5393</v>
       </c>
@@ -15353,7 +15348,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>5393</v>
       </c>
@@ -15379,7 +15374,7 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>6119</v>
       </c>
@@ -15405,7 +15400,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>6119</v>
       </c>
@@ -15459,12 +15454,12 @@
       <selection activeCell="A24" sqref="A24:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="23.33203125" customWidth="1"/>
+    <col min="1" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -15484,7 +15479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -15508,7 +15503,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Paul','Brown','Analyst',95000,CONVERT(datetime, 41443))</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -15532,7 +15527,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Kyle','Connors','Analyst',80000,CONVERT(datetime, 40056))</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -15556,7 +15551,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Jason','Gotti','Manager',100000,CONVERT(datetime, 36523))</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -15580,7 +15575,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Joshua','Hansen','Manager',95000,CONVERT(datetime, 41204))</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15604,7 +15599,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Chelsea','Little','Analyst',75000,CONVERT(datetime, 41127))</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -15628,7 +15623,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Matthew','Nelson','Analyst',80000,CONVERT(datetime, 39545))</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -15652,7 +15647,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Matthew','Roberts','Analyst',75000,CONVERT(datetime, 41302))</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -15676,7 +15671,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Scott','Smith','Developer',100000,CONVERT(datetime, 40658))</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -15700,7 +15695,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Tyler','Stout','Developer',110000,CONVERT(datetime, 41204))</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -15724,7 +15719,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Jason','White','Developer',105000,CONVERT(datetime, 42940))</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -15748,7 +15743,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('ABC Computers','Alex','Wolthuis','Developer',105000,CONVERT(datetime, 40546))</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -15772,7 +15767,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Joseph','Bennett','Analyst',75000,CONVERT(datetime, 38656))</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -15796,7 +15791,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Casey','Cook','Developer',105000,CONVERT(datetime, 38985))</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -15820,7 +15815,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Diane','Graybeal','Developer',150000,CONVERT(datetime, 39175))</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -15844,7 +15839,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Philip','Rogers','Analyst',65000,CONVERT(datetime, 35324))</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -15868,7 +15863,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Shannon','Rusch','Analyst',65000,CONVERT(datetime, 39411))</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -15892,7 +15887,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Joe','Sako','Developer',135000,CONVERT(datetime, 38846))</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -15916,7 +15911,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('Acme','Adam','Towns','Manager',90000,CONVERT(datetime, 38369))</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -15924,7 +15919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -15936,7 +15931,7 @@
         <v>INSERT @Employees (Company, FirstName, LastName, JobRole, Salary, HireDate) VALUES ('1','Sony','','',,CONVERT(datetime, ))</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -15944,7 +15939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -15952,7 +15947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -15960,7 +15955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -15968,7 +15963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -15991,16 +15986,16 @@
   <dimension ref="C4:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -16008,7 +16003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -16020,7 +16015,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('1','Sony')</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
@@ -16032,7 +16027,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('2','Nintendo')</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
@@ -16044,7 +16039,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('3','Microsoft')</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
@@ -16056,7 +16051,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('4','Sega')</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
@@ -16068,7 +16063,7 @@
         <v>INSERT @Manufacturer (ManufacturerID, ManufacturerName) VALUES ('5','Atari')</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
@@ -16089,19 +16084,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C5:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>62</v>
       </c>
@@ -16118,7 +16113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>500</v>
       </c>
@@ -16139,7 +16134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>501</v>
       </c>
@@ -16150,7 +16145,7 @@
         <v>65</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J28" si="0">"INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"')"</f>
+        <f t="shared" ref="J7:J27" si="0">"INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"')"</f>
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('501','1','PlayStation ')</v>
       </c>
       <c r="U7">
@@ -16160,7 +16155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>502</v>
       </c>
@@ -16181,7 +16176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>503</v>
       </c>
@@ -16202,7 +16197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>504</v>
       </c>
@@ -16223,7 +16218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>505</v>
       </c>
@@ -16238,7 +16233,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('505','1','PlayStation 4')</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>506</v>
       </c>
@@ -16253,7 +16248,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('506','3','Xbox')</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>507</v>
       </c>
@@ -16268,7 +16263,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('507','3','Xbox 360')</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>508</v>
       </c>
@@ -16283,7 +16278,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('508','3','Xbox One')</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>509</v>
       </c>
@@ -16298,7 +16293,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('509','5','Atari 2600')</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>510</v>
       </c>
@@ -16313,7 +16308,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('510','5','Atari Lynx')</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>511</v>
       </c>
@@ -16328,7 +16323,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('511','5','Atari 5200')</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>512</v>
       </c>
@@ -16343,7 +16338,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('512','2','Game Cube')</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>513</v>
       </c>
@@ -16358,7 +16353,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('513','2','Wii')</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>514</v>
       </c>
@@ -16373,7 +16368,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('514','2','Wii U')</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>515</v>
       </c>
@@ -16388,7 +16383,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('515','2','Game Boy')</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>516</v>
       </c>
@@ -16403,7 +16398,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('516','2','Game Boy Color')</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>517</v>
       </c>
@@ -16418,7 +16413,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('517','1','PlayStation Vita')</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>518</v>
       </c>
@@ -16433,7 +16428,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('518','2','Super Nintendo')</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>519</v>
       </c>
@@ -16448,7 +16443,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('519','2','Nintendo DS')</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>520</v>
       </c>
@@ -16463,7 +16458,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('520','2','Nintendo 3DS')</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>521</v>
       </c>
@@ -16478,7 +16473,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('521','2','Nintendo Entertainment System')</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>522</v>
       </c>
@@ -16493,7 +16488,7 @@
         <v>INSERT @Console (ConsoleID, ManufacturerID, ConsoleName) VALUES ('522','2','Nintendo 64')</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>523</v>
       </c>
@@ -16504,7 +16499,7 @@
         <v>87</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -16514,18 +16509,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8748CFA-8195-493E-BA0D-9E249A2388D9}">
-  <dimension ref="C4:G24"/>
+  <dimension ref="C4:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J5" sqref="J5:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>88</v>
       </c>
@@ -16533,16 +16528,16 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -16558,13 +16553,17 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f>"INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"')"</f>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('1','Missile Command','2','1','0')</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -16575,13 +16574,17 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J20" si="0">"INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"')"</f>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('2','Crash Bandicoot','5','5','0')</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -16592,13 +16595,17 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('3','Star Wars Battlefront','7','3','0')</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -16609,13 +16616,17 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('4','Final Fantasy XV','3','3','0')</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -16626,13 +16637,17 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('5','Halo Reach','7','4','1')</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -16643,13 +16658,17 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('6','Guitar Hero: On Tour','8','2','0')</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -16660,13 +16679,17 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('7','Monster Hunter World','3','3','1')</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -16677,13 +16700,17 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('8','Mario Kart Wii','9','1','1')</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -16694,13 +16721,17 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('9','Left 4 Dead','7','4','1')</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -16711,13 +16742,17 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('10','Skyrim ','3','4','0')</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -16728,13 +16763,17 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('11','Destiny','7','3','1')</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -16745,13 +16784,17 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('12','Super Smash Bros. Brawl','10','3','1')</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -16762,13 +16805,17 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('13','Sonic The Hedgehog','5','1','0')</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -16779,13 +16826,17 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('14','Zelda Link's Awakening','2','1','0')</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -16796,13 +16847,17 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('15','Donkey Kong 64','5','1','0')</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -16813,23 +16868,27 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT @Games (GameID, GameName, GenreID, RatingID,IsOnline) VALUES ('16','Last of Us ','2','4','0')</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>20</v>
       </c>
@@ -16844,73 +16903,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C045F4A8-5729-493B-8A8F-2CC535964053}">
   <dimension ref="C3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -16922,132 +16981,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B1CCD9-5528-4971-AF33-D6A80A4E0944}">
   <dimension ref="C4:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/CS+3550+-+Aggregation+Data+Set.xlsx
+++ b/CS+3550+-+Aggregation+Data+Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\CS3550 adv db\Assign1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1137AF-C599-4B85-8CBA-0EE9027E7642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40232A-B1AA-4E4D-89B9-115375DF8D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="10590" tabRatio="775" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
   <si>
     <t>InvoiceID</t>
   </si>
@@ -464,6 +464,9 @@
   <si>
     <t>RatingID</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
@@ -16979,10 +16982,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B1CCD9-5528-4971-AF33-D6A80A4E0944}">
-  <dimension ref="C4:F14"/>
+  <dimension ref="C4:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17109,6 +17112,11 @@
         <v>135</v>
       </c>
     </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
